--- a/codepdf/hazelcast.xlsx
+++ b/codepdf/hazelcast.xlsx
@@ -54,11 +54,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前系统LSN最大值，新的事务日志LSN将在此基础上生成</t>
+    <r>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hazelcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的分布式数据结构实现集群，比如分布式队列和分布式锁</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用Hazelcast的分布式数据结构实现集群，比如分布式队列和分布式锁</t>
+    <r>
+      <t>当前系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LSN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大值，新的事务日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LSN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将在此基础上生成</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -86,6 +147,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,14 +490,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -454,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
